--- a/downloaded_files/SBES153_Lecture-35352.xlsx
+++ b/downloaded_files/SBES153_Lecture-35352.xlsx
@@ -147,7 +147,7 @@
     <x:t>زياد خالد عزت عبد المنعم</x:t>
   </x:si>
   <x:si>
-    <x:t>Zeyad khaled ezzat abdel monem</x:t>
+    <x:t>Zeyad khaled Ezzat Abdel Moniem</x:t>
   </x:si>
   <x:si>
     <x:t>4240018</x:t>
